--- a/sustentopreciosminsa202202.xlsx
+++ b/sustentopreciosminsa202202.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Preciosminsa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOTAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="INEI" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -46369,4 +46371,1046 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20384891943</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1782.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38.703</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.297</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.592</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1034.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.703</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20.297</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.592</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11074</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-363</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-12512.09</v>
+      </c>
+      <c r="H4" t="n">
+        <v>34.469</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38.703</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.297</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.592</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45003</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28.144</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13.958</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.647</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11074</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-200</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-3840.84</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19.204</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.144</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.958</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.647</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20384891943</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2039.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50.992</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.687</v>
+      </c>
+      <c r="K7" t="n">
+        <v>33.779</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45003</v>
+      </c>
+      <c r="F8" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2922.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50.992</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.687</v>
+      </c>
+      <c r="K8" t="n">
+        <v>33.779</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11074</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-700</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-25042.67</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35.775</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50.992</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18.687</v>
+      </c>
+      <c r="K9" t="n">
+        <v>33.779</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11074</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4719</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-41285.568</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.749</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.339</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.416</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20384891943</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F11" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1686</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.339</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.416</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>45003</v>
+      </c>
+      <c r="F12" t="n">
+        <v>500</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4015</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.339</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.416</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11074</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-726</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-5487.01</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.558</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.558</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.019</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20384891943</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>748</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.558</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.019</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F15" t="n">
+        <v>200</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1220</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.558</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.019</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20384891943</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F16" t="n">
+        <v>150</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1270.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.877</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F17" t="n">
+        <v>200</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1246</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.877</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11074</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1320</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-8075.83</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.118</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.877</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11080</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-363</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3384.43</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.323</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10.992</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>45002</v>
+      </c>
+      <c r="F20" t="n">
+        <v>190</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1594.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.39</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10.992</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9.178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20384891943</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1512.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33.898</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="K21" t="n">
+        <v>27.731</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>45003</v>
+      </c>
+      <c r="F22" t="n">
+        <v>200</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5586</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="I22" t="n">
+        <v>33.898</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="K22" t="n">
+        <v>27.731</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="n">
+        <v>44778</v>
+      </c>
+      <c r="F23" t="n">
+        <v>363</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9742.14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>26.838</v>
+      </c>
+      <c r="I23" t="n">
+        <v>33.898</v>
+      </c>
+      <c r="J23" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27.731</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="n">
+        <v>20384891943</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1147.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="I24" t="n">
+        <v>40.881</v>
+      </c>
+      <c r="J24" t="n">
+        <v>24.695</v>
+      </c>
+      <c r="K24" t="n">
+        <v>32.996</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11074</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-200</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-6604.85</v>
+      </c>
+      <c r="H25" t="n">
+        <v>33.024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>40.881</v>
+      </c>
+      <c r="J25" t="n">
+        <v>24.695</v>
+      </c>
+      <c r="K25" t="n">
+        <v>32.996</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="n">
+        <v>45003</v>
+      </c>
+      <c r="F26" t="n">
+        <v>80</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2277.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>28.47</v>
+      </c>
+      <c r="I26" t="n">
+        <v>40.881</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24.695</v>
+      </c>
+      <c r="K26" t="n">
+        <v>32.996</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20384891943</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F27" t="n">
+        <v>300</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3168</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.624</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.017</v>
+      </c>
+      <c r="K27" t="n">
+        <v>9.445</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" t="n">
+        <v>20604890617</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11074</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1152</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-9849.69</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.624</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7.017</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9.445</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20515346113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="n">
+        <v>45002</v>
+      </c>
+      <c r="F29" t="n">
+        <v>300</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2442</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.624</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.017</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>